--- a/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,27 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -88,13 +73,31 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>safety</t>
@@ -103,127 +106,148 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>in</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,16 +695,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -700,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -750,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8051948051948052</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C5">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7083333333333334</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9310344827586207</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5450643776824035</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.925</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -950,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5172413793103449</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8823529411764706</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3684210526315789</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,269 +1092,149 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.852112676056338</v>
+      </c>
+      <c r="L11">
+        <v>121</v>
+      </c>
+      <c r="M11">
+        <v>121</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.8515625</v>
+      </c>
+      <c r="L12">
+        <v>109</v>
+      </c>
+      <c r="M12">
+        <v>109</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="L13">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L14">
+        <v>69</v>
+      </c>
+      <c r="M14">
+        <v>69</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K11">
-        <v>0.875</v>
-      </c>
-      <c r="L11">
-        <v>49</v>
-      </c>
-      <c r="M11">
-        <v>49</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.3625</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L14">
-        <v>33</v>
-      </c>
-      <c r="M14">
-        <v>33</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1545454545454545</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>93</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L15">
-        <v>43</v>
-      </c>
-      <c r="M15">
-        <v>43</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>168</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.82</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1373,16 +1277,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8235294117647058</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1394,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1420,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7575757575757576</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1451,16 +1355,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.755868544600939</v>
+        <v>0.7625</v>
       </c>
       <c r="L21">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="M21">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1472,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1498,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7333333333333333</v>
+        <v>0.7519582245430809</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1524,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7307692307692307</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1550,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.72</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1576,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1602,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.6712328767123288</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1628,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6527777777777778</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L28">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1654,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6428571428571429</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1680,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.64</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1706,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.6363636363636364</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1732,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.6195652173913043</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1758,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1784,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1810,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.4864864864864865</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1836,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.0707070707070707</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1862,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>184</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.05396825396825397</v>
+        <v>0.4375</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1888,73 +1792,73 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>298</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.04824561403508772</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>434</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.0472636815920398</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04390243902439024</v>
+        <v>0.07566462167689161</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1966,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>392</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.0352112676056338</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1992,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.02757793764988009</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2018,189 +1922,527 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>811</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.02696871628910464</v>
+        <v>0.05409582689335394</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>902</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.02105263157894737</v>
+        <v>0.05268490374873354</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.01694915254237288</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1102</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.01547277936962751</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1718</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.01462904911180773</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1886</v>
+        <v>860</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.01359516616314199</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1959</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.0368701351904957</v>
+      </c>
+      <c r="L49">
+        <v>90</v>
+      </c>
+      <c r="M49">
+        <v>94</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50">
+        <v>0.03641092327698309</v>
+      </c>
+      <c r="L50">
+        <v>28</v>
+      </c>
+      <c r="M50">
+        <v>29</v>
+      </c>
+      <c r="N50">
+        <v>0.97</v>
+      </c>
+      <c r="O50">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.03177570093457944</v>
+      </c>
+      <c r="L51">
+        <v>68</v>
+      </c>
+      <c r="M51">
+        <v>71</v>
+      </c>
+      <c r="N51">
+        <v>0.96</v>
+      </c>
+      <c r="O51">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0.02959910078681154</v>
+      </c>
+      <c r="L52">
+        <v>79</v>
+      </c>
+      <c r="M52">
+        <v>83</v>
+      </c>
+      <c r="N52">
+        <v>0.95</v>
+      </c>
+      <c r="O52">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53">
+        <v>0.02366626554352186</v>
+      </c>
+      <c r="L53">
+        <v>118</v>
+      </c>
+      <c r="M53">
+        <v>128</v>
+      </c>
+      <c r="N53">
+        <v>0.92</v>
+      </c>
+      <c r="O53">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K49">
-        <v>0.008980115458627326</v>
-      </c>
-      <c r="L49">
-        <v>14</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>0.74</v>
-      </c>
-      <c r="O49">
-        <v>0.26</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1545</v>
+      <c r="K54">
+        <v>0.02361872627583298</v>
+      </c>
+      <c r="L54">
+        <v>56</v>
+      </c>
+      <c r="M54">
+        <v>64</v>
+      </c>
+      <c r="N54">
+        <v>0.88</v>
+      </c>
+      <c r="O54">
+        <v>0.12</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.02199874292897549</v>
+      </c>
+      <c r="L55">
+        <v>35</v>
+      </c>
+      <c r="M55">
+        <v>38</v>
+      </c>
+      <c r="N55">
+        <v>0.92</v>
+      </c>
+      <c r="O55">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56">
+        <v>0.02038161318300087</v>
+      </c>
+      <c r="L56">
+        <v>47</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.01775912173070714</v>
+      </c>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>65</v>
+      </c>
+      <c r="N57">
+        <v>0.85</v>
+      </c>
+      <c r="O57">
+        <v>0.15</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.01726144297905353</v>
+      </c>
+      <c r="L58">
+        <v>89</v>
+      </c>
+      <c r="M58">
+        <v>98</v>
+      </c>
+      <c r="N58">
+        <v>0.91</v>
+      </c>
+      <c r="O58">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>0.01503585473051122</v>
+      </c>
+      <c r="L59">
+        <v>65</v>
+      </c>
+      <c r="M59">
+        <v>70</v>
+      </c>
+      <c r="N59">
+        <v>0.93</v>
+      </c>
+      <c r="O59">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <v>0.01301115241635688</v>
+      </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>0.82</v>
+      </c>
+      <c r="O60">
+        <v>0.18</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61">
+        <v>0.01044713748432929</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62">
+        <v>0.00845599749451926</v>
+      </c>
+      <c r="L62">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <v>35</v>
+      </c>
+      <c r="N62">
+        <v>0.77</v>
+      </c>
+      <c r="O62">
+        <v>0.23</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
